--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.78274503477822</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H2">
-        <v>1.78274503477822</v>
+        <v>23.467675</v>
       </c>
       <c r="I2">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J2">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>78.1140198259651</v>
+        <v>1.4763</v>
       </c>
       <c r="N2">
-        <v>78.1140198259651</v>
+        <v>4.428900000000001</v>
       </c>
       <c r="O2">
-        <v>0.7115134507595434</v>
+        <v>0.01318769285519422</v>
       </c>
       <c r="P2">
-        <v>0.7115134507595434</v>
+        <v>0.01318769285519422</v>
       </c>
       <c r="Q2">
-        <v>139.2573809913067</v>
+        <v>11.5484428675</v>
       </c>
       <c r="R2">
-        <v>139.2573809913067</v>
+        <v>103.9359858075</v>
       </c>
       <c r="S2">
-        <v>0.0002032931040455889</v>
+        <v>1.645816037222729E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002032931040455889</v>
+        <v>1.645816037222729E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.78274503477822</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H3">
-        <v>1.78274503477822</v>
+        <v>23.467675</v>
       </c>
       <c r="I3">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J3">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.671704874781</v>
+        <v>78.17189533333334</v>
       </c>
       <c r="N3">
-        <v>31.671704874781</v>
+        <v>234.515686</v>
       </c>
       <c r="O3">
-        <v>0.2884865492404566</v>
+        <v>0.6983045082736506</v>
       </c>
       <c r="P3">
-        <v>0.2884865492404566</v>
+        <v>0.6983045082736506</v>
       </c>
       <c r="Q3">
-        <v>56.46257460847698</v>
+        <v>611.5042112722278</v>
       </c>
       <c r="R3">
-        <v>56.46257460847698</v>
+        <v>5503.53790145005</v>
       </c>
       <c r="S3">
-        <v>8.242616637519189E-05</v>
+        <v>0.0008714797737566659</v>
       </c>
       <c r="T3">
-        <v>8.242616637519189E-05</v>
+        <v>0.0008714797737566659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6033.69616181804</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H4">
-        <v>6033.69616181804</v>
+        <v>23.467675</v>
       </c>
       <c r="I4">
-        <v>0.9670161642098082</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J4">
-        <v>0.9670161642098082</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>78.1140198259651</v>
+        <v>0.1536526666666667</v>
       </c>
       <c r="N4">
-        <v>78.1140198259651</v>
+        <v>0.460958</v>
       </c>
       <c r="O4">
-        <v>0.7115134507595434</v>
+        <v>0.00137256937911098</v>
       </c>
       <c r="P4">
-        <v>0.7115134507595434</v>
+        <v>0.00137256937911098</v>
       </c>
       <c r="Q4">
-        <v>471316.2616081039</v>
+        <v>1.201956948072222</v>
       </c>
       <c r="R4">
-        <v>471316.2616081039</v>
+        <v>10.81761253265</v>
       </c>
       <c r="S4">
-        <v>0.6880450079371779</v>
+        <v>1.712958226390559E-06</v>
       </c>
       <c r="T4">
-        <v>0.6880450079371779</v>
+        <v>1.712958226390559E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6033.69616181804</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H5">
-        <v>6033.69616181804</v>
+        <v>23.467675</v>
       </c>
       <c r="I5">
-        <v>0.9670161642098082</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J5">
-        <v>0.9670161642098082</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.671704874781</v>
+        <v>32.14343433333334</v>
       </c>
       <c r="N5">
-        <v>31.671704874781</v>
+        <v>96.43030300000001</v>
       </c>
       <c r="O5">
-        <v>0.2884865492404566</v>
+        <v>0.2871352294920441</v>
       </c>
       <c r="P5">
-        <v>0.2884865492404566</v>
+        <v>0.2871352294920441</v>
       </c>
       <c r="Q5">
-        <v>191097.4441411998</v>
+        <v>251.4438901061695</v>
       </c>
       <c r="R5">
-        <v>191097.4441411998</v>
+        <v>2262.995010955525</v>
       </c>
       <c r="S5">
-        <v>0.2789711562726302</v>
+        <v>0.0003583430177959471</v>
       </c>
       <c r="T5">
-        <v>0.2789711562726302</v>
+        <v>0.0003583430177959471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.649551861772563</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H6">
-        <v>0.649551861772563</v>
+        <v>18113.320312</v>
       </c>
       <c r="I6">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J6">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>78.1140198259651</v>
+        <v>1.4763</v>
       </c>
       <c r="N6">
-        <v>78.1140198259651</v>
+        <v>4.428900000000001</v>
       </c>
       <c r="O6">
-        <v>0.7115134507595434</v>
+        <v>0.01318769285519422</v>
       </c>
       <c r="P6">
-        <v>0.7115134507595434</v>
+        <v>0.01318769285519422</v>
       </c>
       <c r="Q6">
-        <v>50.73910700849453</v>
+        <v>8913.564925535202</v>
       </c>
       <c r="R6">
-        <v>50.73910700849453</v>
+        <v>80222.0843298168</v>
       </c>
       <c r="S6">
-        <v>7.407083550495655E-05</v>
+        <v>0.01270308756911019</v>
       </c>
       <c r="T6">
-        <v>7.407083550495655E-05</v>
+        <v>0.01270308756911019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.649551861772563</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H7">
-        <v>0.649551861772563</v>
+        <v>18113.320312</v>
       </c>
       <c r="I7">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J7">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.671704874781</v>
+        <v>78.17189533333334</v>
       </c>
       <c r="N7">
-        <v>31.671704874781</v>
+        <v>234.515686</v>
       </c>
       <c r="O7">
-        <v>0.2884865492404566</v>
+        <v>0.6983045082736506</v>
       </c>
       <c r="P7">
-        <v>0.2884865492404566</v>
+        <v>0.6983045082736506</v>
       </c>
       <c r="Q7">
-        <v>20.57241486692516</v>
+        <v>471984.1931896016</v>
       </c>
       <c r="R7">
-        <v>20.57241486692516</v>
+        <v>4247857.738706415</v>
       </c>
       <c r="S7">
-        <v>3.003237635405418E-05</v>
+        <v>0.6726440641215536</v>
       </c>
       <c r="T7">
-        <v>3.003237635405418E-05</v>
+        <v>0.6726440641215536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>203.37030576412</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H8">
-        <v>203.37030576412</v>
+        <v>18113.320312</v>
       </c>
       <c r="I8">
-        <v>0.03259401330791207</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J8">
-        <v>0.03259401330791207</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>78.1140198259651</v>
+        <v>0.1536526666666667</v>
       </c>
       <c r="N8">
-        <v>78.1140198259651</v>
+        <v>0.460958</v>
       </c>
       <c r="O8">
-        <v>0.7115134507595434</v>
+        <v>0.00137256937911098</v>
       </c>
       <c r="P8">
-        <v>0.7115134507595434</v>
+        <v>0.00137256937911098</v>
       </c>
       <c r="Q8">
-        <v>15886.07209647105</v>
+        <v>927.7199893754329</v>
       </c>
       <c r="R8">
-        <v>15886.07209647105</v>
+        <v>8349.479904378895</v>
       </c>
       <c r="S8">
-        <v>0.023191078882815</v>
+        <v>0.001322131870144256</v>
       </c>
       <c r="T8">
-        <v>0.023191078882815</v>
+        <v>0.001322131870144256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>203.37030576412</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H9">
-        <v>203.37030576412</v>
+        <v>18113.320312</v>
       </c>
       <c r="I9">
-        <v>0.03259401330791207</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J9">
-        <v>0.03259401330791207</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.671704874781</v>
+        <v>32.14343433333334</v>
       </c>
       <c r="N9">
-        <v>31.671704874781</v>
+        <v>96.43030300000001</v>
       </c>
       <c r="O9">
-        <v>0.2884865492404566</v>
+        <v>0.2871352294920441</v>
       </c>
       <c r="P9">
-        <v>0.2884865492404566</v>
+        <v>0.2871352294920441</v>
       </c>
       <c r="Q9">
-        <v>6441.084304455181</v>
+        <v>194074.7740024683</v>
       </c>
       <c r="R9">
-        <v>6441.084304455181</v>
+        <v>1746672.966022215</v>
       </c>
       <c r="S9">
-        <v>0.009402934425097072</v>
+        <v>0.2765839335556977</v>
       </c>
       <c r="T9">
-        <v>0.009402934425097072</v>
+        <v>0.2765839335556977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.018774</v>
+      </c>
+      <c r="H10">
+        <v>3.056322</v>
+      </c>
+      <c r="I10">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="J10">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.4763</v>
+      </c>
+      <c r="N10">
+        <v>4.428900000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.01318769285519422</v>
+      </c>
+      <c r="P10">
+        <v>0.01318769285519422</v>
+      </c>
+      <c r="Q10">
+        <v>1.5040160562</v>
+      </c>
+      <c r="R10">
+        <v>13.5361445058</v>
+      </c>
+      <c r="S10">
+        <v>2.143435070801281E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.143435070801281E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.018774</v>
+      </c>
+      <c r="H11">
+        <v>3.056322</v>
+      </c>
+      <c r="I11">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="J11">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>78.17189533333334</v>
+      </c>
+      <c r="N11">
+        <v>234.515686</v>
+      </c>
+      <c r="O11">
+        <v>0.6983045082736506</v>
+      </c>
+      <c r="P11">
+        <v>0.6983045082736506</v>
+      </c>
+      <c r="Q11">
+        <v>79.63949449632133</v>
+      </c>
+      <c r="R11">
+        <v>716.7554504668919</v>
+      </c>
+      <c r="S11">
+        <v>0.0001134975154158868</v>
+      </c>
+      <c r="T11">
+        <v>0.0001134975154158868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.018774</v>
+      </c>
+      <c r="H12">
+        <v>3.056322</v>
+      </c>
+      <c r="I12">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="J12">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1536526666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.460958</v>
+      </c>
+      <c r="O12">
+        <v>0.00137256937911098</v>
+      </c>
+      <c r="P12">
+        <v>0.00137256937911098</v>
+      </c>
+      <c r="Q12">
+        <v>0.1565373418306666</v>
+      </c>
+      <c r="R12">
+        <v>1.408836076476</v>
+      </c>
+      <c r="S12">
+        <v>2.230877968268457E-07</v>
+      </c>
+      <c r="T12">
+        <v>2.230877968268457E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.018774</v>
+      </c>
+      <c r="H13">
+        <v>3.056322</v>
+      </c>
+      <c r="I13">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="J13">
+        <v>0.0001625329839219791</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.14343433333334</v>
+      </c>
+      <c r="N13">
+        <v>96.43030300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2871352294920441</v>
+      </c>
+      <c r="P13">
+        <v>0.2871352294920441</v>
+      </c>
+      <c r="Q13">
+        <v>32.74689516950733</v>
+      </c>
+      <c r="R13">
+        <v>294.722056525566</v>
+      </c>
+      <c r="S13">
+        <v>4.666894563846418E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.666894563846418E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H14">
+        <v>664.474213</v>
+      </c>
+      <c r="I14">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J14">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.4763</v>
+      </c>
+      <c r="N14">
+        <v>4.428900000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.01318769285519422</v>
+      </c>
+      <c r="P14">
+        <v>0.01318769285519422</v>
+      </c>
+      <c r="Q14">
+        <v>326.9877602173</v>
+      </c>
+      <c r="R14">
+        <v>2942.8898419557</v>
+      </c>
+      <c r="S14">
+        <v>0.0004660036906409993</v>
+      </c>
+      <c r="T14">
+        <v>0.0004660036906409993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H15">
+        <v>664.474213</v>
+      </c>
+      <c r="I15">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J15">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>78.17189533333334</v>
+      </c>
+      <c r="N15">
+        <v>234.515686</v>
+      </c>
+      <c r="O15">
+        <v>0.6983045082736506</v>
+      </c>
+      <c r="P15">
+        <v>0.6983045082736506</v>
+      </c>
+      <c r="Q15">
+        <v>17314.40287677835</v>
+      </c>
+      <c r="R15">
+        <v>155829.6258910051</v>
+      </c>
+      <c r="S15">
+        <v>0.02467546686292437</v>
+      </c>
+      <c r="T15">
+        <v>0.02467546686292437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H16">
+        <v>664.474213</v>
+      </c>
+      <c r="I16">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J16">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1536526666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.460958</v>
+      </c>
+      <c r="O16">
+        <v>0.00137256937911098</v>
+      </c>
+      <c r="P16">
+        <v>0.00137256937911098</v>
+      </c>
+      <c r="Q16">
+        <v>34.03274491956155</v>
+      </c>
+      <c r="R16">
+        <v>306.2947042760539</v>
+      </c>
+      <c r="S16">
+        <v>4.8501462943506E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.8501462943506E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H17">
+        <v>664.474213</v>
+      </c>
+      <c r="I17">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J17">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>32.14343433333334</v>
+      </c>
+      <c r="N17">
+        <v>96.43030300000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2871352294920441</v>
+      </c>
+      <c r="P17">
+        <v>0.2871352294920441</v>
+      </c>
+      <c r="Q17">
+        <v>7119.494410586283</v>
+      </c>
+      <c r="R17">
+        <v>64075.44969527654</v>
+      </c>
+      <c r="S17">
+        <v>0.01014628397291197</v>
+      </c>
+      <c r="T17">
+        <v>0.01014628397291197</v>
       </c>
     </row>
   </sheetData>
